--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -722,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,7 +774,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
         <v>512</v>
       </c>
       <c r="D2" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -802,27 +802,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>512</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>493</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -830,27 +830,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45843</v>
+        <v>45846</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>410</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -942,18 +942,18 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -974,14 +974,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -998,11 +998,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1054,30 +1054,30 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>497</v>
+        <v>920</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1086,23 +1086,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>280</v>
+        <v>920</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1110,27 +1110,27 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1126</v>
+        <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>1117</v>
+        <v>920</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1142,25 +1142,305 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>945</v>
+      </c>
+      <c r="D15" t="n">
+        <v>920</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>945</v>
+      </c>
+      <c r="D16" t="n">
+        <v>920</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>945</v>
+      </c>
+      <c r="D17" t="n">
+        <v>920</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>509</v>
+      </c>
+      <c r="D18" t="n">
+        <v>332</v>
+      </c>
+      <c r="E18" t="n">
+        <v>134</v>
+      </c>
+      <c r="F18" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>509</v>
+      </c>
+      <c r="D19" t="n">
+        <v>497</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>288</v>
+      </c>
+      <c r="D20" t="n">
+        <v>280</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>288</v>
+      </c>
+      <c r="D21" t="n">
+        <v>280</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1117</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C24" t="n">
         <v>3</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -722,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,27 +830,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>410</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -869,13 +869,13 @@
         <v>410</v>
       </c>
       <c r="D5" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>84</v>
@@ -886,27 +886,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D6" t="n">
-        <v>920</v>
+        <v>322</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -942,18 +942,18 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -998,18 +998,18 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1054,11 +1054,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1082,7 +1082,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1110,11 +1110,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1138,7 +1138,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1166,11 +1166,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1194,7 +1194,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1222,35 +1222,35 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E18" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1261,13 +1261,13 @@
         <v>509</v>
       </c>
       <c r="D19" t="n">
-        <v>497</v>
+        <v>332</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1278,35 +1278,35 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D20" t="n">
-        <v>280</v>
+        <v>497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1334,27 +1334,27 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1126</v>
+        <v>288</v>
       </c>
       <c r="D22" t="n">
-        <v>1106</v>
+        <v>280</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1373,13 +1373,13 @@
         <v>1126</v>
       </c>
       <c r="D23" t="n">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1390,24 +1390,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1126</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1117</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1429,18 +1429,46 @@
         <v>3</v>
       </c>
       <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>1</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -17,8 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="DD-MMM-YYYY"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -51,7 +52,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -722,13 +723,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -858,27 +869,27 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45847</v>
+        <v>45844</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>410</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>322</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -886,27 +897,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45846</v>
+        <v>45843</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>410</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -914,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -942,27 +953,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D8" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -970,27 +981,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D9" t="n">
-        <v>920</v>
+        <v>322</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -998,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1026,18 +1037,18 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1046,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1054,18 +1065,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1074,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1082,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1110,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1130,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1138,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1158,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1166,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1194,11 +1205,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1222,11 +1233,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1250,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1278,11 +1289,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1306,11 +1317,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1334,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1362,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1390,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1418,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1446,63 +1457,63 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E26" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D27" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E27" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1513,13 +1524,13 @@
         <v>509</v>
       </c>
       <c r="D28" t="n">
-        <v>497</v>
+        <v>332</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1530,63 +1541,63 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>280</v>
+        <v>497</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1614,27 +1625,27 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1126</v>
+        <v>288</v>
       </c>
       <c r="D32" t="n">
-        <v>880</v>
+        <v>280</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1642,27 +1653,27 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1126</v>
+        <v>288</v>
       </c>
       <c r="D33" t="n">
-        <v>1106</v>
+        <v>280</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1670,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1681,13 +1692,13 @@
         <v>1126</v>
       </c>
       <c r="D34" t="n">
-        <v>1117</v>
+        <v>880</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1698,24 +1709,24 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>1126</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>1106</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1726,24 +1737,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>1126</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>1117</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1754,7 +1765,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1777,6 +1788,62 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,27 +897,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45843</v>
+        <v>45847</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>410</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,13 +936,13 @@
         <v>410</v>
       </c>
       <c r="D7" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>84</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>410</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E8" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>84</v>
@@ -981,27 +981,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>322</v>
+        <v>920</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,18 +1065,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,11 +1233,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,35 +1485,35 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D27" t="n">
-        <v>920</v>
+        <v>332</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1552,13 +1552,13 @@
         <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>332</v>
+        <v>497</v>
       </c>
       <c r="E29" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1569,35 +1569,35 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D30" t="n">
-        <v>497</v>
+        <v>280</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,27 +1653,27 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>288</v>
+        <v>1126</v>
       </c>
       <c r="D33" t="n">
-        <v>280</v>
+        <v>880</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1692,13 +1692,13 @@
         <v>1126</v>
       </c>
       <c r="D34" t="n">
-        <v>880</v>
+        <v>1106</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1720,13 +1720,13 @@
         <v>1126</v>
       </c>
       <c r="D35" t="n">
-        <v>1106</v>
+        <v>1117</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1737,24 +1737,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1126</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>1117</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1776,13 +1776,13 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1804,46 +1804,18 @@
         <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,27 +897,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45847</v>
+        <v>45843</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>410</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>322</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -936,13 +936,13 @@
         <v>410</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E7" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>84</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -964,13 +964,13 @@
         <v>410</v>
       </c>
       <c r="D8" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>84</v>
@@ -981,27 +981,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>945</v>
+        <v>410</v>
       </c>
       <c r="D9" t="n">
-        <v>920</v>
+        <v>322</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,18 +1065,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,11 +1233,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,35 +1485,35 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D27" t="n">
-        <v>332</v>
+        <v>920</v>
       </c>
       <c r="E27" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1552,13 +1552,13 @@
         <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>497</v>
+        <v>332</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1569,35 +1569,35 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>280</v>
+        <v>497</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,27 +1653,27 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1126</v>
+        <v>288</v>
       </c>
       <c r="D33" t="n">
-        <v>880</v>
+        <v>280</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1692,13 +1692,13 @@
         <v>1126</v>
       </c>
       <c r="D34" t="n">
-        <v>1106</v>
+        <v>880</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1720,13 +1720,13 @@
         <v>1126</v>
       </c>
       <c r="D35" t="n">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1737,24 +1737,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>1126</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1117</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1776,13 +1776,13 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1804,18 +1804,46 @@
         <v>3</v>
       </c>
       <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -738,8 +738,8 @@
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
@@ -748,8 +748,8 @@
     <col width="13" customWidth="1" min="19" max="19"/>
     <col width="5" customWidth="1" min="20" max="20"/>
     <col width="14" customWidth="1" min="21" max="21"/>
-    <col width="10" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="16" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="5" customWidth="1" min="25" max="25"/>
     <col width="5" customWidth="1" min="26" max="26"/>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>20-July-2025</t>
+          <t>18-July-2025</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>512</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>427</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>81</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>19-July-2025</t>
+          <t>17-July-2025</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>512</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>207</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>189</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>466</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -1221,22 +1221,22 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>453</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
@@ -1292,29 +1292,45 @@
       <c r="J3" t="n">
         <v/>
       </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="n">
-        <v/>
-      </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
-      </c>
-      <c r="R3" t="n">
-        <v/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S3" t="n">
         <v/>
@@ -1322,29 +1338,45 @@
       <c r="T3" t="n">
         <v/>
       </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v/>
-      </c>
-      <c r="Y3" t="n">
-        <v/>
-      </c>
-      <c r="Z3" t="n">
-        <v/>
-      </c>
-      <c r="AA3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="n">
-        <v/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC3" t="n">
         <v/>
@@ -1354,7 +1386,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1400,7 +1432,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1486,29 +1518,45 @@
       <c r="J4" t="n">
         <v/>
       </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="R4" t="n">
-        <v/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S4" t="n">
         <v/>
@@ -1516,29 +1564,45 @@
       <c r="T4" t="n">
         <v/>
       </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v/>
-      </c>
-      <c r="Y4" t="n">
-        <v/>
-      </c>
-      <c r="Z4" t="n">
-        <v/>
-      </c>
-      <c r="AA4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC4" t="n">
         <v/>
@@ -1548,7 +1612,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1594,7 +1658,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1680,29 +1744,45 @@
       <c r="J5" t="n">
         <v/>
       </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
-      </c>
-      <c r="R5" t="n">
-        <v/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S5" t="n">
         <v/>
@@ -1710,29 +1790,45 @@
       <c r="T5" t="n">
         <v/>
       </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v/>
-      </c>
-      <c r="Y5" t="n">
-        <v/>
-      </c>
-      <c r="Z5" t="n">
-        <v/>
-      </c>
-      <c r="AA5" t="n">
-        <v/>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC5" t="n">
         <v/>
@@ -1742,7 +1838,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1788,7 +1884,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1874,29 +1970,45 @@
       <c r="J6" t="n">
         <v/>
       </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="R6" t="n">
-        <v/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S6" t="n">
         <v/>
@@ -1904,29 +2016,45 @@
       <c r="T6" t="n">
         <v/>
       </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v/>
-      </c>
-      <c r="Y6" t="n">
-        <v/>
-      </c>
-      <c r="Z6" t="n">
-        <v/>
-      </c>
-      <c r="AA6" t="n">
-        <v/>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC6" t="n">
         <v/>
@@ -1936,7 +2064,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1982,7 +2110,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -2068,29 +2196,45 @@
       <c r="J7" t="n">
         <v/>
       </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="R7" t="n">
-        <v/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S7" t="n">
         <v/>
@@ -2098,29 +2242,45 @@
       <c r="T7" t="n">
         <v/>
       </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
-      </c>
-      <c r="Z7" t="n">
-        <v/>
-      </c>
-      <c r="AA7" t="n">
-        <v/>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC7" t="n">
         <v/>
@@ -2130,7 +2290,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2176,7 +2336,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2262,29 +2422,45 @@
       <c r="J8" t="n">
         <v/>
       </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="R8" t="n">
-        <v/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S8" t="n">
         <v/>
@@ -2292,29 +2468,45 @@
       <c r="T8" t="n">
         <v/>
       </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
-        <v/>
-      </c>
-      <c r="AA8" t="n">
-        <v/>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC8" t="n">
         <v/>
@@ -2324,7 +2516,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2370,7 +2562,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2456,29 +2648,45 @@
       <c r="J9" t="n">
         <v/>
       </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="R9" t="n">
-        <v/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S9" t="n">
         <v/>
@@ -2486,29 +2694,45 @@
       <c r="T9" t="n">
         <v/>
       </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
-      <c r="AA9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC9" t="n">
         <v/>
@@ -2518,7 +2742,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2564,7 +2788,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2650,29 +2874,45 @@
       <c r="J10" t="n">
         <v/>
       </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="R10" t="n">
-        <v/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="S10" t="n">
         <v/>
@@ -2680,29 +2920,45 @@
       <c r="T10" t="n">
         <v/>
       </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
-      </c>
-      <c r="AA10" t="n">
-        <v/>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="AC10" t="n">
         <v/>
@@ -2712,7 +2968,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2758,7 +3014,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2844,29 +3100,45 @@
       <c r="J11" t="n">
         <v/>
       </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
-      </c>
-      <c r="R11" t="n">
-        <v/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S11" t="n">
         <v/>
@@ -2874,29 +3146,45 @@
       <c r="T11" t="n">
         <v/>
       </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="n">
-        <v/>
-      </c>
-      <c r="X11" t="n">
-        <v/>
-      </c>
-      <c r="Y11" t="n">
-        <v/>
-      </c>
-      <c r="Z11" t="n">
-        <v/>
-      </c>
-      <c r="AA11" t="n">
-        <v/>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC11" t="n">
         <v/>
@@ -2906,7 +3194,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2952,7 +3240,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2962,27 +3250,27 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>288</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
@@ -3038,29 +3326,45 @@
       <c r="J12" t="n">
         <v/>
       </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
-      </c>
-      <c r="R12" t="n">
-        <v/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S12" t="n">
         <v/>
@@ -3068,29 +3372,45 @@
       <c r="T12" t="n">
         <v/>
       </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v/>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
-      </c>
-      <c r="Z12" t="n">
-        <v/>
-      </c>
-      <c r="AA12" t="n">
-        <v/>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC12" t="n">
         <v/>
@@ -3100,7 +3420,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3115,7 +3435,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>882</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -3125,7 +3445,7 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>232</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -3146,7 +3466,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3161,17 +3481,17 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>867</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>247</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
@@ -3232,29 +3552,45 @@
       <c r="J13" t="n">
         <v/>
       </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
-      </c>
-      <c r="R13" t="n">
-        <v/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S13" t="n">
         <v/>
@@ -3262,29 +3598,45 @@
       <c r="T13" t="n">
         <v/>
       </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
-      </c>
-      <c r="AA13" t="n">
-        <v/>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC13" t="n">
         <v/>
@@ -3294,7 +3646,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3309,17 +3661,17 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>118</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -3340,7 +3692,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3355,7 +3707,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -3365,7 +3717,7 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>154</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -719,7 +719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:AN13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,46 +735,38 @@
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="5" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="13" customWidth="1" min="19" max="19"/>
-    <col width="5" customWidth="1" min="20" max="20"/>
-    <col width="14" customWidth="1" min="21" max="21"/>
-    <col width="16" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="5" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="13" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="14" customWidth="1" min="31" max="31"/>
-    <col width="16" customWidth="1" min="32" max="32"/>
+    <col width="14" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="5" customWidth="1" min="36" max="36"/>
-    <col width="5" customWidth="1" min="37" max="37"/>
-    <col width="6" customWidth="1" min="38" max="38"/>
-    <col width="13" customWidth="1" min="39" max="39"/>
+    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="14" customWidth="1" min="41" max="41"/>
-    <col width="16" customWidth="1" min="42" max="42"/>
-    <col width="6" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
-    <col width="5" customWidth="1" min="45" max="45"/>
-    <col width="5" customWidth="1" min="46" max="46"/>
-    <col width="5" customWidth="1" min="47" max="47"/>
-    <col width="6" customWidth="1" min="48" max="48"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -820,202 +812,162 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Unnamed: 8</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Module</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Date.1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Module.1</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>T.1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>P.1</t>
+          <t>F</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>S.1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>F.1</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>I.1</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>KI.1</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Unnamed: 18</t>
+          <t>T</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> .1</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Date.2</t>
+          <t>S</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>Module.2</t>
+          <t>F</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>T.2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>P.2</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>S.2</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>F.2</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>I.2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>KI.2</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>Unnamed: 28</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> .2</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>Date.3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>Module.3</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>T.3</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>P.3</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>S.3</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>F.3</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>I.3</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>KI.3</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>Unnamed: 38</t>
+          <t>I</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> .3</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Date.4</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Module.4</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>T.4</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>P.4</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>S.4</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>F.4</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>I.4</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>KI.4</t>
+          <t>KI</t>
         </is>
       </c>
     </row>
@@ -1063,185 +1015,153 @@
       <c r="I2" t="n">
         <v/>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>427</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v/>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ2" t="n">
+        <v/>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC2" t="n">
-        <v/>
-      </c>
-      <c r="AD2" t="n">
-        <v/>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM2" t="n">
-        <v/>
-      </c>
-      <c r="AN2" t="n">
-        <v/>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>453</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -1289,185 +1209,153 @@
       <c r="I3" t="n">
         <v/>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v/>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC3" t="n">
-        <v/>
-      </c>
-      <c r="AD3" t="n">
-        <v/>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ3" t="n">
+        <v/>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>322</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM3" t="n">
-        <v/>
-      </c>
-      <c r="AN3" t="n">
-        <v/>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -1515,185 +1403,153 @@
       <c r="I4" t="n">
         <v/>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v/>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ4" t="n">
+        <v/>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>920</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM4" t="n">
-        <v/>
-      </c>
-      <c r="AN4" t="n">
-        <v/>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -1741,185 +1597,153 @@
       <c r="I5" t="n">
         <v/>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v/>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v/>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>935</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM5" t="n">
-        <v/>
-      </c>
-      <c r="AN5" t="n">
-        <v/>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -1967,185 +1791,153 @@
       <c r="I6" t="n">
         <v/>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v/>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v/>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>920</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM6" t="n">
-        <v/>
-      </c>
-      <c r="AN6" t="n">
-        <v/>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2193,185 +1985,153 @@
       <c r="I7" t="n">
         <v/>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
+        <v/>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ7" t="n">
+        <v/>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>920</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM7" t="n">
-        <v/>
-      </c>
-      <c r="AN7" t="n">
-        <v/>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2419,185 +2179,153 @@
       <c r="I8" t="n">
         <v/>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>920</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM8" t="n">
-        <v/>
-      </c>
-      <c r="AN8" t="n">
-        <v/>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2645,185 +2373,153 @@
       <c r="I9" t="n">
         <v/>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>920</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM9" t="n">
-        <v/>
-      </c>
-      <c r="AN9" t="n">
-        <v/>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AS9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2871,185 +2567,153 @@
       <c r="I10" t="n">
         <v/>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
+      <c r="AA10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AJ10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>332</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AM10" t="n">
-        <v/>
-      </c>
-      <c r="AN10" t="n">
-        <v/>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
@@ -3097,185 +2761,153 @@
       <c r="I11" t="n">
         <v/>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
+        <v/>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ11" t="n">
+        <v/>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM11" t="n">
-        <v/>
-      </c>
-      <c r="AN11" t="n">
-        <v/>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>280</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -3323,185 +2955,153 @@
       <c r="I12" t="n">
         <v/>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>879</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA12" t="n">
+        <v/>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ12" t="n">
+        <v/>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>887</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>882</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM12" t="n">
-        <v/>
-      </c>
-      <c r="AN12" t="n">
-        <v/>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>867</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -3549,185 +3149,153 @@
       <c r="I13" t="n">
         <v/>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
       <c r="V13" t="inlineStr">
         <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>16-July-2025</t>
+          <t>118</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ13" t="n">
+        <v/>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM13" t="n">
-        <v/>
-      </c>
-      <c r="AN13" t="n">
-        <v/>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>43</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -18,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -735,237 +739,237 @@
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="8" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="5" customWidth="1" min="27" max="27"/>
-    <col width="14" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="14" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="5" customWidth="1" min="36" max="36"/>
-    <col width="14" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="14" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="6" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>KI</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>KI</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>KI</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>KI</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>KI</t>
         </is>
@@ -1012,156 +1016,158 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>427</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="n">
+        <v/>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v/>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA2" t="n">
-        <v/>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ2" t="n">
-        <v/>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>453</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1206,156 +1212,158 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v/>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v/>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ3" t="n">
-        <v/>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1400,156 +1408,158 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v/>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ4" t="n">
-        <v/>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1594,156 +1604,158 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v/>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v/>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA5" t="n">
-        <v/>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ5" t="n">
-        <v/>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1788,156 +1800,158 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v/>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v/>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA6" t="n">
-        <v/>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ6" t="n">
-        <v/>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1982,156 +1996,158 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v/>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA7" t="n">
-        <v/>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ7" t="n">
-        <v/>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2176,156 +2192,158 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v/>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA8" t="n">
-        <v/>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ8" t="n">
-        <v/>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2370,156 +2388,158 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ9" t="n">
-        <v/>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2564,156 +2584,158 @@
           <t>12</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="R10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AA10" t="n">
-        <v/>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>134</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AJ10" t="n">
-        <v/>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>332</t>
         </is>
       </c>
     </row>
@@ -2758,156 +2780,158 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v/>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v/>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v/>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ11" t="n">
-        <v/>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>288</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2952,156 +2976,158 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>879</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v/>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>887</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA12" t="n">
-        <v/>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>882</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ12" t="n">
-        <v/>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>867</t>
         </is>
       </c>
     </row>
@@ -3146,156 +3172,158 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v/>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA13" t="n">
-        <v/>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ13" t="n">
-        <v/>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,38 +739,42 @@
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="14" customWidth="1" min="18" max="18"/>
-    <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="16" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="14" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="14" customWidth="1" min="30" max="30"/>
+    <col width="16" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
-    <col width="14" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="6" customWidth="1" min="38" max="38"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="6" customWidth="1" min="37" max="37"/>
+    <col width="8" customWidth="1" min="38" max="38"/>
     <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="14" customWidth="1" min="40" max="40"/>
+    <col width="16" customWidth="1" min="41" max="41"/>
+    <col width="6" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -814,162 +818,162 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>KI</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>KI</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>KI</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>KI</t>
         </is>
@@ -1016,156 +1020,156 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>427</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v/>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>207</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="n">
-        <v/>
-      </c>
-      <c r="AA2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v/>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>466</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="n">
-        <v/>
-      </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM2" t="n">
+        <v/>
+      </c>
+      <c r="AN2" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>453</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1212,156 +1216,156 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="n">
-        <v/>
-      </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+      <c r="AD3" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="n">
-        <v/>
-      </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM3" t="n">
+        <v/>
+      </c>
+      <c r="AN3" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1408,156 +1412,156 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="n">
-        <v/>
-      </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
-      </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM4" t="n">
+        <v/>
+      </c>
+      <c r="AN4" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1604,156 +1608,156 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q5" t="n">
-        <v/>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="n">
-        <v/>
-      </c>
-      <c r="AA5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
-      </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM5" t="n">
+        <v/>
+      </c>
+      <c r="AN5" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1800,156 +1804,156 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="n">
-        <v/>
-      </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
-      </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM6" t="n">
+        <v/>
+      </c>
+      <c r="AN6" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1996,156 +2000,156 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="n">
-        <v/>
-      </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
-      </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM7" t="n">
+        <v/>
+      </c>
+      <c r="AN7" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2192,156 +2196,156 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="n">
-        <v/>
-      </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
-      </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM8" t="n">
+        <v/>
+      </c>
+      <c r="AN8" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2388,156 +2392,156 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
-      </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
+      <c r="AN9" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2584,156 +2588,156 @@
           <t>12</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="n">
-        <v/>
-      </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI10" t="n">
-        <v/>
-      </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AM10" t="n">
+        <v/>
+      </c>
+      <c r="AN10" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
@@ -2780,156 +2784,156 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v/>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="n">
-        <v/>
-      </c>
-      <c r="AA11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
-      </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM11" t="n">
+        <v/>
+      </c>
+      <c r="AN11" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2976,156 +2980,156 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>235</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v/>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>887</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>219</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="n">
-        <v/>
-      </c>
-      <c r="AA12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>882</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>232</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
-      </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM12" t="n">
+        <v/>
+      </c>
+      <c r="AN12" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>867</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -3172,156 +3176,156 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>195</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v/>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
-      </c>
-      <c r="AA13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
-      </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM13" t="n">
+        <v/>
+      </c>
+      <c r="AN13" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,41 +740,50 @@
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="5" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="14" customWidth="1" min="20" max="20"/>
-    <col width="16" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="13" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+    <col width="16" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="14" customWidth="1" min="30" max="30"/>
-    <col width="16" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="28" max="28"/>
+    <col width="5" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="13" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="14" customWidth="1" min="34" max="34"/>
+    <col width="16" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="6" customWidth="1" min="37" max="37"/>
-    <col width="8" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="38" max="38"/>
     <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="14" customWidth="1" min="40" max="40"/>
-    <col width="16" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
     <col width="6" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="13" customWidth="1" min="43" max="43"/>
     <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="2" customWidth="1" min="45" max="45"/>
+    <col width="14" customWidth="1" min="46" max="46"/>
+    <col width="16" customWidth="1" min="47" max="47"/>
+    <col width="6" customWidth="1" min="48" max="48"/>
+    <col width="5" customWidth="1" min="49" max="49"/>
+    <col width="5" customWidth="1" min="50" max="50"/>
+    <col width="5" customWidth="1" min="51" max="51"/>
+    <col width="5" customWidth="1" min="52" max="52"/>
+    <col width="6" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -820,162 +829,202 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Unnamed: 8</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t> </t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Date.1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Module.1</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T.1</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>P.1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>S.1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>KI</t>
+          <t>F.1</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>I.1</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t>KI.1</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Unnamed: 18</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>P</t>
+          <t xml:space="preserve"> .1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Date.2</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Module.2</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>T.2</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>KI</t>
+          <t>P.2</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>S.2</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t>F.2</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>I.2</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>KI.2</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Unnamed: 28</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t xml:space="preserve"> .2</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Date.3</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>KI</t>
+          <t>Module.3</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>T.3</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t>P.3</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S.3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>F.3</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I.3</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>KI.3</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Unnamed: 38</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>KI</t>
+          <t xml:space="preserve"> .3</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Date.4</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Module.4</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>T.4</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>P.4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>S.4</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>F.4</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>I.4</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>KI.4</t>
         </is>
       </c>
     </row>
@@ -1020,156 +1069,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>427</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>207</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC2" t="n">
-        <v/>
-      </c>
       <c r="AD2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v/>
+      </c>
+      <c r="AG2" t="n">
+        <v/>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>466</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM2" t="n">
-        <v/>
-      </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="n">
+        <v/>
+      </c>
+      <c r="AR2" t="n">
+        <v/>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>453</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1216,156 +1295,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC3" t="n">
-        <v/>
-      </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM3" t="n">
-        <v/>
-      </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="n">
+        <v/>
+      </c>
+      <c r="AR3" t="n">
+        <v/>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1412,156 +1521,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM4" t="n">
-        <v/>
-      </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="n">
+        <v/>
+      </c>
+      <c r="AR4" t="n">
+        <v/>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1608,156 +1747,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
       <c r="AD5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM5" t="n">
-        <v/>
-      </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="n">
+        <v/>
+      </c>
+      <c r="AR5" t="n">
+        <v/>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1804,156 +1973,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM6" t="n">
-        <v/>
-      </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="n">
+        <v/>
+      </c>
+      <c r="AR6" t="n">
+        <v/>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AW6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2000,156 +2199,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM7" t="n">
-        <v/>
-      </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="n">
+        <v/>
+      </c>
+      <c r="AR7" t="n">
+        <v/>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AV7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AW7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2196,156 +2425,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM8" t="n">
-        <v/>
-      </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
+      <c r="AR8" t="n">
+        <v/>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AW8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2392,156 +2651,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
       <c r="T9" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM9" t="n">
-        <v/>
-      </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
+      <c r="AR9" t="n">
+        <v/>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AV9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AW9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2588,158 +2877,188 @@
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AM10" t="n">
-        <v/>
-      </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
+      <c r="AR10" t="n">
+        <v/>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AV10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AW10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AX10" t="inlineStr">
         <is>
           <t>134</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2784,156 +3103,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
       <c r="AD11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM11" t="n">
-        <v/>
-      </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ11" t="n">
+        <v/>
+      </c>
+      <c r="AR11" t="n">
+        <v/>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AW11" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2980,158 +3329,188 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>235</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>887</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>219</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
       <c r="AD12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>882</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>232</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM12" t="n">
-        <v/>
-      </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ12" t="n">
+        <v/>
+      </c>
+      <c r="AR12" t="n">
+        <v/>
+      </c>
+      <c r="AT12" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AW12" t="inlineStr">
         <is>
           <t>867</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AX12" t="inlineStr">
         <is>
           <t>12</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3176,156 +3555,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>195</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
       <c r="AD13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM13" t="n">
-        <v/>
-      </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="n">
+        <v/>
+      </c>
+      <c r="AR13" t="n">
+        <v/>
+      </c>
+      <c r="AT13" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AV13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AW13" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,50 +740,41 @@
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="5" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="16" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="5" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="13" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="14" customWidth="1" min="23" max="23"/>
-    <col width="16" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="5" customWidth="1" min="28" max="28"/>
-    <col width="5" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="13" customWidth="1" min="32" max="32"/>
+    <col width="14" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="14" customWidth="1" min="34" max="34"/>
-    <col width="16" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="6" customWidth="1" min="37" max="37"/>
-    <col width="5" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="6" customWidth="1" min="42" max="42"/>
-    <col width="13" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
-    <col width="2" customWidth="1" min="45" max="45"/>
-    <col width="14" customWidth="1" min="46" max="46"/>
-    <col width="16" customWidth="1" min="47" max="47"/>
-    <col width="6" customWidth="1" min="48" max="48"/>
-    <col width="5" customWidth="1" min="49" max="49"/>
-    <col width="5" customWidth="1" min="50" max="50"/>
-    <col width="5" customWidth="1" min="51" max="51"/>
-    <col width="5" customWidth="1" min="52" max="52"/>
-    <col width="6" customWidth="1" min="53" max="53"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -829,202 +820,162 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 8</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Module</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Date.1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Module.1</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>T.1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>P.1</t>
+          <t>F</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S.1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>F.1</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>I.1</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>KI.1</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 18</t>
+          <t>T</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> .1</t>
+          <t>P</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Date.2</t>
+          <t>S</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Module.2</t>
+          <t>F</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>T.2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>P.2</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>S.2</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>F.2</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>I.2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>KI.2</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 28</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> .2</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Date.3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Module.3</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>T.3</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>P.3</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>S.3</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>F.3</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>I.3</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>KI.3</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 38</t>
+          <t>I</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> .3</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Date.4</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Module.4</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>T.4</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>P.4</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>S.4</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>F.4</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>I.4</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>KI.4</t>
+          <t>KI</t>
         </is>
       </c>
     </row>
@@ -1069,186 +1020,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
-      <c r="K2" t="n">
-        <v/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>512</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>427</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="n">
-        <v/>
-      </c>
-      <c r="AG2" t="n">
-        <v/>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>453</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="n">
-        <v/>
-      </c>
-      <c r="AR2" t="n">
-        <v/>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1295,186 +1222,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>410</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="n">
-        <v/>
-      </c>
-      <c r="AG3" t="n">
-        <v/>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="n">
-        <v/>
-      </c>
-      <c r="AR3" t="n">
-        <v/>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1521,186 +1424,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="n">
-        <v/>
-      </c>
-      <c r="AR4" t="n">
-        <v/>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1747,186 +1626,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>16-July-2025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="n">
-        <v/>
-      </c>
-      <c r="AR5" t="n">
-        <v/>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1973,186 +1828,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="n">
-        <v/>
-      </c>
-      <c r="AR6" t="n">
-        <v/>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2199,186 +2030,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ7" t="n">
-        <v/>
-      </c>
-      <c r="AR7" t="n">
-        <v/>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2425,186 +2232,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="n">
-        <v/>
-      </c>
-      <c r="AR8" t="n">
-        <v/>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2651,186 +2434,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI9" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ9" t="n">
-        <v/>
-      </c>
-      <c r="AR9" t="n">
-        <v/>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="BA9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2877,186 +2636,162 @@
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>509</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AQ10" t="n">
-        <v/>
-      </c>
-      <c r="AR10" t="n">
-        <v/>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -3103,132 +2838,144 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>281</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>16-July-2025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>288</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -3238,51 +2985,15 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ11" t="n">
-        <v/>
-      </c>
-      <c r="AR11" t="n">
-        <v/>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="BA11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3329,186 +3040,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>879</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>887</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>882</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ12" t="n">
-        <v/>
-      </c>
-      <c r="AR12" t="n">
-        <v/>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AW12" t="inlineStr">
-        <is>
-          <t>867</t>
-        </is>
-      </c>
-      <c r="AX12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
           <t>247</t>
         </is>
       </c>
-      <c r="AZ12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3555,132 +3242,144 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>197</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>16-July-2025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -3690,51 +3389,15 @@
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ13" t="n">
-        <v/>
-      </c>
-      <c r="AR13" t="n">
-        <v/>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
           <t>154</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,41 +740,50 @@
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+    <col width="16" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="14" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="4" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="14" customWidth="1" min="34" max="34"/>
+    <col width="16" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="14" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="6" customWidth="1" min="37" max="37"/>
+    <col width="8" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="4" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="2" customWidth="1" min="45" max="45"/>
+    <col width="14" customWidth="1" min="46" max="46"/>
+    <col width="16" customWidth="1" min="47" max="47"/>
+    <col width="6" customWidth="1" min="48" max="48"/>
+    <col width="5" customWidth="1" min="49" max="49"/>
+    <col width="5" customWidth="1" min="50" max="50"/>
+    <col width="5" customWidth="1" min="51" max="51"/>
+    <col width="4" customWidth="1" min="52" max="52"/>
+    <col width="4" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -978,206 +987,278 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-July-2025</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>I</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
-        </is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v/>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t> </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>T</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>S</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>F</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>I</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v/>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t> </t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>T</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16-July-2025</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>I</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v/>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t> </t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Module</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>15-July-2025</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>P</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>S</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>I</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="AQ2" t="n">
+        <v/>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>KI</t>
         </is>
       </c>
     </row>
@@ -1189,195 +1270,219 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>198</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>157</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>512</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="n">
+        <v/>
+      </c>
+      <c r="AR3" t="n">
+        <v/>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1391,17 +1496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>322</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1411,12 +1516,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1424,162 +1529,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>410</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>322</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>410</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>322</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="n">
+        <v/>
+      </c>
+      <c r="AR4" t="n">
+        <v/>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1593,7 +1722,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1603,7 +1732,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>920</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1618,7 +1747,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1626,162 +1755,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="S5" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="n">
+        <v/>
+      </c>
+      <c r="AR5" t="n">
+        <v/>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1795,7 +1948,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1805,7 +1958,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>935</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1820,7 +1973,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1828,162 +1981,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="n">
+        <v/>
+      </c>
+      <c r="AR6" t="n">
+        <v/>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1997,7 +2174,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2030,162 +2207,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="n">
+        <v/>
+      </c>
+      <c r="AR7" t="n">
+        <v/>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AW7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AZ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="BA7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2199,7 +2400,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2232,162 +2433,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
+      <c r="AR8" t="n">
+        <v/>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AW8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AZ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="BA8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2401,7 +2626,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2434,162 +2659,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
+      <c r="AR9" t="n">
+        <v/>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AW9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AZ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="BA9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2603,67 +2852,63 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>920</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>945</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>920</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2673,127 +2918,155 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>945</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>920</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
+      <c r="AR10" t="n">
+        <v/>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>12</t>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2805,27 +3078,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>509</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>332</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2835,167 +3108,191 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>509</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>332</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>134</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>509</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>332</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AQ11" t="n">
+        <v/>
+      </c>
+      <c r="AR11" t="n">
+        <v/>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3007,27 +3304,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>225</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3040,162 +3337,186 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>281</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>225</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>887</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>281</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>882</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ12" t="n">
+        <v/>
+      </c>
+      <c r="AR12" t="n">
+        <v/>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>867</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3209,195 +3530,445 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="n">
+        <v/>
+      </c>
+      <c r="AR13" t="n">
+        <v/>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21-July-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>195</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AI14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ14" t="n">
+        <v/>
+      </c>
+      <c r="AR14" t="n">
+        <v/>
+      </c>
+      <c r="AT14" t="inlineStr">
         <is>
           <t>15-July-2025</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AW14" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,234 +1031,226 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>21-July-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>198</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>157</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>KI</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="n">
         <v/>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="K2" t="n">
+        <v/>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>18-July-2025</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>512</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>427</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>81</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>KI</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v/>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="V2" t="n">
+        <v/>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>17-July-2025</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>116</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>207</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>189</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>KI</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF2" t="n">
         <v/>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="AG2" t="n">
+        <v/>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>512</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>466</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>KI</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="n">
         <v/>
       </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="AR2" t="n">
+        <v/>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Module</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>512</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>453</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>KI</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1270,124 +1262,124 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>322</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>427</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1408,17 +1400,17 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>410</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>322</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1428,58 +1420,58 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="n">
+        <v/>
+      </c>
+      <c r="AR3" t="n">
+        <v/>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="n">
-        <v/>
-      </c>
-      <c r="AR3" t="n">
-        <v/>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>84</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
@@ -1496,17 +1488,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>920</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1516,12 +1508,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1542,17 +1534,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>945</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>920</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1562,12 +1554,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>15</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1588,17 +1580,17 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>945</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>920</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1608,12 +1600,12 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1634,17 +1626,17 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>920</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1654,12 +1646,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1680,17 +1672,17 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>920</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
@@ -1700,12 +1692,12 @@
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>15</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
@@ -1722,7 +1714,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1732,7 +1724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>935</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1747,7 +1739,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1768,7 +1760,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1778,7 +1770,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>935</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1793,7 +1785,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1814,7 +1806,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1824,7 +1816,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>935</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1839,7 +1831,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1860,7 +1852,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1870,7 +1862,7 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>935</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1885,7 +1877,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1906,7 +1898,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
@@ -1916,7 +1908,7 @@
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>935</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
@@ -1931,7 +1923,7 @@
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
@@ -1948,7 +1940,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1958,7 +1950,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>920</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1973,7 +1965,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1994,7 +1986,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -2004,7 +1996,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>920</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -2019,7 +2011,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -2040,7 +2032,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -2050,7 +2042,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>920</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -2065,7 +2057,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -2086,7 +2078,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -2096,7 +2088,7 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>920</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -2111,7 +2103,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -2132,7 +2124,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
@@ -2142,7 +2134,7 @@
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>920</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
@@ -2157,7 +2149,7 @@
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
@@ -2174,7 +2166,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2220,7 +2212,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -2266,7 +2258,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -2312,7 +2304,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -2358,7 +2350,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
@@ -2400,7 +2392,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2446,7 +2438,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -2492,7 +2484,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -2538,7 +2530,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
@@ -2584,7 +2576,7 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
@@ -2626,7 +2618,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2672,7 +2664,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2718,7 +2710,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2764,7 +2756,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -2810,7 +2802,7 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
@@ -2852,37 +2844,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>509</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>332</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -2898,37 +2890,37 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>509</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>332</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>134</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="U10" t="n">
@@ -2944,37 +2936,37 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>509</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>332</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>134</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AF10" t="n">
@@ -2990,37 +2982,37 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>509</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>332</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>134</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AQ10" t="n">
@@ -3036,37 +3028,37 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>509</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>332</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>134</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3078,27 +3070,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>225</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3108,7 +3100,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -3124,27 +3116,27 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>281</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>225</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>52</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -3154,7 +3146,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -3170,27 +3162,27 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>281</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3200,7 +3192,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF11" t="n">
@@ -3216,27 +3208,27 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>281</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -3246,7 +3238,7 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ11" t="n">
@@ -3262,37 +3254,37 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>288</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3304,27 +3296,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3350,27 +3342,27 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>879</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>235</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -3396,27 +3388,27 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>887</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>219</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3442,27 +3434,27 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>882</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>232</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -3488,32 +3480,32 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>867</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>247</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
@@ -3530,27 +3522,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3576,27 +3568,27 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>197</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>195</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -3622,27 +3614,27 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>197</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>131</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3668,27 +3660,27 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>197</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>118</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -3714,27 +3706,27 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>197</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>154</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
@@ -3743,232 +3735,6 @@
         </is>
       </c>
       <c r="BA13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ14" t="n">
-        <v/>
-      </c>
-      <c r="AR14" t="n">
-        <v/>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AW14" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,50 +740,41 @@
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="16" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="14" customWidth="1" min="23" max="23"/>
-    <col width="16" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="4" customWidth="1" min="30" max="30"/>
-    <col width="4" customWidth="1" min="31" max="31"/>
+    <col width="14" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="14" customWidth="1" min="34" max="34"/>
-    <col width="16" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="6" customWidth="1" min="37" max="37"/>
-    <col width="8" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="4" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
-    <col width="2" customWidth="1" min="45" max="45"/>
-    <col width="14" customWidth="1" min="46" max="46"/>
-    <col width="16" customWidth="1" min="47" max="47"/>
-    <col width="6" customWidth="1" min="48" max="48"/>
-    <col width="5" customWidth="1" min="49" max="49"/>
-    <col width="5" customWidth="1" min="50" max="50"/>
-    <col width="5" customWidth="1" min="51" max="51"/>
-    <col width="4" customWidth="1" min="52" max="52"/>
-    <col width="4" customWidth="1" min="53" max="53"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -987,46 +978,6 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1069,186 +1020,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
-      <c r="K2" t="n">
-        <v/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>512</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>427</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="n">
-        <v/>
-      </c>
-      <c r="AG2" t="n">
-        <v/>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>453</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="n">
-        <v/>
-      </c>
-      <c r="AR2" t="n">
-        <v/>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1295,186 +1222,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>410</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="n">
-        <v/>
-      </c>
-      <c r="AG3" t="n">
-        <v/>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="n">
-        <v/>
-      </c>
-      <c r="AR3" t="n">
-        <v/>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1521,186 +1424,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="n">
-        <v/>
-      </c>
-      <c r="AR4" t="n">
-        <v/>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1747,186 +1626,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>16-July-2025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="n">
-        <v/>
-      </c>
-      <c r="AR5" t="n">
-        <v/>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1973,186 +1828,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="n">
-        <v/>
-      </c>
-      <c r="AR6" t="n">
-        <v/>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2199,186 +2030,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ7" t="n">
-        <v/>
-      </c>
-      <c r="AR7" t="n">
-        <v/>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="BA7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2425,186 +2232,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="n">
-        <v/>
-      </c>
-      <c r="AR8" t="n">
-        <v/>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2651,186 +2434,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
       <c r="AI9" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ9" t="n">
-        <v/>
-      </c>
-      <c r="AR9" t="n">
-        <v/>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AZ9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="BA9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2877,186 +2636,162 @@
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>509</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AQ10" t="n">
-        <v/>
-      </c>
-      <c r="AR10" t="n">
-        <v/>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -3103,132 +2838,144 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>281</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>16-July-2025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>288</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>280</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -3238,51 +2985,15 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ11" t="n">
-        <v/>
-      </c>
-      <c r="AR11" t="n">
-        <v/>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="BA11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3329,186 +3040,162 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>879</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>887</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>882</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ12" t="n">
-        <v/>
-      </c>
-      <c r="AR12" t="n">
-        <v/>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AW12" t="inlineStr">
-        <is>
-          <t>867</t>
-        </is>
-      </c>
-      <c r="AX12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
           <t>247</t>
         </is>
       </c>
-      <c r="AZ12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3555,132 +3242,144 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>18-July-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>18-July-2025</t>
+          <t>197</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>17-July-2025</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>17-July-2025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>16-July-2025</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>16-July-2025</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>15-July-2025</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -3690,51 +3389,15 @@
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ13" t="n">
-        <v/>
-      </c>
-      <c r="AR13" t="n">
-        <v/>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
           <t>154</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -744,7 +744,7 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
@@ -982,192 +982,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>198</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>427</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>207</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>466</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>55</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,197 +2800,197 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
@@ -3002,192 +3002,192 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>1028</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>235</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>887</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>219</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>882</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>232</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>867</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>247</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3204,192 +3204,192 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>22-July-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>195</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>16-July-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>79</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>15-July-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>154</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -737,8 +737,8 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -753,7 +753,7 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
@@ -982,197 +982,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>198</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>427</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>207</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>23-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>23-July-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>23-July-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>23-July-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>23-July-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>23-July-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>23-July-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>23-July-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>23-July-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,192 +3002,192 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>23-July-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1028</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>235</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>887</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>219</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>882</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>232</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3202,194 +3202,178 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>195</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>17-July-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>131</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>16-July-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>79</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -733,9 +733,9 @@
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
@@ -746,8 +746,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -762,7 +762,7 @@
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
@@ -982,197 +982,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>25-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>198</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>427</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>25-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>25-July-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>25-July-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>25-July-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>25-July-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>25-July-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>25-July-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>25-July-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>25-July-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3000,194 +3000,178 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v/>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1028</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>879</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>235</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>887</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>219</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3226,154 +3210,138 @@
       <c r="H13" t="n">
         <v/>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>18-July-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
         <is>
           <t>195</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>17-July-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>131</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -733,7 +733,7 @@
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
@@ -755,8 +755,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -771,7 +771,7 @@
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="6" customWidth="1" min="41" max="41"/>
     <col width="5" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
@@ -982,192 +982,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>198</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>153</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>427</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>81</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3026,152 +3026,152 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>25-July-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>1028</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>67</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>879</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>235</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3234,114 +3234,98 @@
       <c r="Q13" t="n">
         <v/>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>21-July-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>18-July-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -2603,27 +2603,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>98</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2805,27 +2805,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>842</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>272</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3000,29 +3000,45 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v/>
-      </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-      <c r="E12" t="n">
-        <v/>
-      </c>
-      <c r="F12" t="n">
-        <v/>
-      </c>
-      <c r="G12" t="n">
-        <v/>
-      </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -744,7 +744,7 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
     <col width="5" customWidth="1" min="17" max="17"/>
@@ -764,8 +764,8 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="6" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="14" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
@@ -982,197 +982,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,192 +2396,192 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>129</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>842</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>1046</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,192 +3002,192 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>1028</t>
-        </is>
-      </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3274,74 +3274,58 @@
       <c r="Z13" t="n">
         <v/>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>22-July-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>170</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>21-July-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -406,31 +406,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>242</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -723,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,7 +708,7 @@
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
@@ -746,26 +721,26 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="14" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
@@ -982,192 +957,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>410</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>492</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1184,197 +1159,197 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>84</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1386,197 +1361,197 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>935</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1588,197 +1563,197 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>919</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1790,172 +1765,172 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1992,172 +1967,172 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2194,172 +2169,172 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>920</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>920</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -2396,396 +2371,396 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pms</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>919</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>129</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="AQ10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2793,199 +2768,183 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v/>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v/>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>183</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>842</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>1046</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -3000,340 +2959,186 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v/>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>23-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AQ12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v/>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>22-July-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -708,12 +708,12 @@
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -2773,29 +2773,45 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v/>
-      </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
-      <c r="C11" t="n">
-        <v/>
-      </c>
-      <c r="D11" t="n">
-        <v/>
-      </c>
-      <c r="E11" t="n">
-        <v/>
-      </c>
-      <c r="F11" t="n">
-        <v/>
-      </c>
-      <c r="G11" t="n">
-        <v/>
-      </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1033</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -2959,29 +2975,45 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v/>
-      </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-      <c r="E12" t="n">
-        <v/>
-      </c>
-      <c r="F12" t="n">
-        <v/>
-      </c>
-      <c r="G12" t="n">
-        <v/>
-      </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -709,36 +709,36 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="3" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="3" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="3" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="4" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
@@ -746,8 +746,8 @@
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="6" customWidth="1" min="41" max="41"/>
+    <col width="3" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
@@ -962,17 +962,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>591</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -982,17 +982,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1002,17 +1002,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>612</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>591</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -1022,17 +1022,17 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>612</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>591</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -1062,17 +1062,17 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -1082,37 +1082,37 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>612</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>506</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>612</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>591</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1164,17 +1164,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>414</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>333</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1204,17 +1204,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>414</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>333</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1224,12 +1224,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>78</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -1244,17 +1244,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>414</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>329</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>78</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>414</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>329</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>414</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>329</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>930</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>930</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>930</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>945</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1588,12 +1588,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>945</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1628,12 +1628,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>945</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1708,12 +1708,12 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>930</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>930</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2376,37 +2376,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>930</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2416,37 +2416,37 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>930</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2456,37 +2456,37 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>945</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>930</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2496,37 +2496,37 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -2536,37 +2536,37 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2578,27 +2578,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>990</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2618,27 +2618,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>990</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2658,27 +2658,27 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>990</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>5</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2698,27 +2698,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>998</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2738,27 +2738,27 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>998</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2780,32 +2780,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>281</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2820,32 +2820,32 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>288</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>281</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2860,32 +2860,32 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>288</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>281</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2900,32 +2900,32 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>288</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>281</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2940,32 +2940,32 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>288</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>281</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
@@ -2982,17 +2982,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3022,17 +3022,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>6</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -3062,17 +3062,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1118</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3142,22 +3142,22 @@
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>123</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -406,6 +406,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -698,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3176,6 +3226,410 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -456,6 +456,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -748,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR14"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3436,195 +3461,397 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>resident-ui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>resident-ui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>resident-ui</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>resident-ui</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>resident-ui</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>resident-ui</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>resident-ui</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>resident-ui</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>resident-ui</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>resident-ui</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -785,10 +785,10 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="3" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -799,7 +799,7 @@
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
@@ -812,17 +812,17 @@
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="4" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="3" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="14" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="6" customWidth="1" min="41" max="41"/>
-    <col width="3" customWidth="1" min="42" max="42"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="4" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
@@ -1032,192 +1032,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>506</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1234,167 +1234,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1436,167 +1436,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1638,167 +1638,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1840,167 +1840,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2042,167 +2042,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2244,167 +2244,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2446,167 +2446,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2648,167 +2648,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>990</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>990</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>990</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>998</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2850,167 +2850,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3052,192 +3052,192 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1118</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>1117</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3254,167 +3254,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3456,167 +3456,167 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3656,194 +3656,178 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v/>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -785,10 +785,10 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -808,7 +808,7 @@
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="14" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -821,8 +821,8 @@
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="4" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="3" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
@@ -1032,192 +1032,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>506</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1234,167 +1234,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1436,167 +1436,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1638,167 +1638,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1840,167 +1840,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2042,167 +2042,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2244,167 +2244,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2446,167 +2446,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2648,192 +2648,192 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>990</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>990</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>990</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>998</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2850,167 +2850,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3052,192 +3052,192 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>1118</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>1117</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3254,167 +3254,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3456,167 +3456,167 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3656,178 +3656,194 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v/>
-      </c>
-      <c r="B15" t="n">
-        <v/>
-      </c>
-      <c r="C15" t="n">
-        <v/>
-      </c>
-      <c r="D15" t="n">
-        <v/>
-      </c>
-      <c r="E15" t="n">
-        <v/>
-      </c>
-      <c r="F15" t="n">
-        <v/>
-      </c>
-      <c r="G15" t="n">
-        <v/>
-      </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -784,8 +784,8 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -794,8 +794,8 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="3" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -817,7 +817,7 @@
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
@@ -1032,167 +1032,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>573</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1234,192 +1234,192 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1436,167 +1436,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1638,167 +1638,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1840,167 +1840,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2042,167 +2042,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2244,167 +2244,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2446,167 +2446,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2648,167 +2648,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>998</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>990</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>990</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2850,167 +2850,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3052,369 +3052,369 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>1118</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3456,167 +3456,167 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3658,192 +3658,192 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -793,8 +793,8 @@
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
@@ -803,8 +803,8 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="3" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
@@ -1032,167 +1032,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>573</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1234,167 +1234,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1436,167 +1436,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1638,167 +1638,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1840,167 +1840,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2042,167 +2042,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2244,167 +2244,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2446,167 +2446,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2648,167 +2648,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>998</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>998</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>990</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2850,167 +2850,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3052,167 +3052,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>537</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>575</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3254,167 +3254,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3456,167 +3456,167 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3658,167 +3658,167 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -784,7 +784,7 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
@@ -802,8 +802,8 @@
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
@@ -812,8 +812,8 @@
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="3" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
@@ -1032,369 +1032,369 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>241</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>284</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>573</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1436,167 +1436,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1638,167 +1638,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1840,167 +1840,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2042,167 +2042,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2244,167 +2244,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2446,167 +2446,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2648,167 +2648,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>985</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>998</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>998</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2850,167 +2850,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3052,167 +3052,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>542</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>537</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>575</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3254,167 +3254,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3456,167 +3456,167 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3658,167 +3658,167 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -793,7 +793,7 @@
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
@@ -811,8 +811,8 @@
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="4" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
@@ -821,8 +821,8 @@
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="3" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
@@ -1032,192 +1032,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>241</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>284</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>573</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1234,167 +1234,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1436,167 +1436,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1638,167 +1638,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1840,167 +1840,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2042,167 +2042,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2244,167 +2244,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2446,167 +2446,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2648,192 +2648,192 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>985</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>998</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>998</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2850,192 +2850,192 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -3052,192 +3052,192 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>823</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>540</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>542</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>537</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>575</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3254,167 +3254,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3456,167 +3456,167 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3658,167 +3658,167 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -802,7 +802,7 @@
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
@@ -820,8 +820,8 @@
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="4" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
     <col width="4" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
@@ -1032,386 +1032,386 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>241</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>284</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>573</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
       <c r="AO3" t="inlineStr">
         <is>
           <t>0</t>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1436,167 +1436,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>929</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1638,167 +1638,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1840,167 +1840,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2042,167 +2042,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2244,167 +2244,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2446,167 +2446,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2648,167 +2648,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>985</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>998</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2850,192 +2850,192 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -3052,192 +3052,192 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>823</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>293</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>540</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>542</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>537</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>575</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>1121</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3254,167 +3254,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3456,167 +3456,167 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3658,167 +3658,167 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -481,6 +481,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>308</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -773,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AR16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,7 +811,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
@@ -795,7 +820,7 @@
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -804,7 +829,7 @@
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
@@ -3259,17 +3284,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3279,7 +3304,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>164</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3289,7 +3314,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3299,17 +3324,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>204</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3319,7 +3344,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>164</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3329,7 +3354,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -3339,17 +3364,17 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>204</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3359,7 +3384,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>164</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -3369,7 +3394,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -3379,17 +3404,17 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>204</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>123</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3399,7 +3424,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3409,7 +3434,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -3419,17 +3444,17 @@
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>204</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>143</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -3439,7 +3464,7 @@
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
@@ -3449,7 +3474,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -3461,27 +3486,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>residentui</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3501,27 +3526,27 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>residentui</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3541,27 +3566,27 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>residentui</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -3581,17 +3606,17 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>residentui</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -3601,7 +3626,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3621,17 +3646,17 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>residentui</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -3641,7 +3666,7 @@
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
@@ -3663,195 +3688,397 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR16"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,16 +809,16 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
@@ -827,29 +827,20 @@
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="10" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1013,46 +1004,6 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1072,17 +1023,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>297</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>145</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1092,7 +1043,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1112,17 +1063,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>271</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>164</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>172</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1132,7 +1083,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1152,17 +1103,17 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>383</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>205</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -1172,7 +1123,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -1192,67 +1143,27 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>289</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>164</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>154</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1274,17 +1185,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>260</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1314,17 +1225,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>287</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1354,17 +1265,17 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>271</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1384,75 +1295,35 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>245</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>217</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>662</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1586,17 +1457,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>197</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1606,55 +1477,15 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>189</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1788,17 +1619,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1817,46 +1648,6 @@
         </is>
       </c>
       <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1990,75 +1781,35 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2185,85 +1936,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -2387,85 +2082,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -2589,85 +2228,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -2683,22 +2266,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>509</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>322</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2708,7 +2291,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2723,22 +2306,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>509</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>322</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>137</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>38</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2748,7 +2331,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2763,22 +2346,22 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>509</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>322</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>137</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2788,88 +2371,32 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>985</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>998</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -2885,107 +2412,107 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>281</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>145</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>45</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2993,85 +2520,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -3087,22 +2558,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>246</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>217</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>661</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3112,7 +2583,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3127,22 +2598,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>300</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>189</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>635</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3152,7 +2623,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -3167,22 +2638,22 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>264</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>214</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>646</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -3192,88 +2663,32 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>542</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>579</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>537</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>575</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -3289,12 +2704,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3304,7 +2719,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>189</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3314,7 +2729,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3329,12 +2744,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>197</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3344,7 +2759,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>188</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3354,7 +2769,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -3369,12 +2784,12 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>197</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3384,7 +2799,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>188</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -3394,88 +2809,32 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -3599,85 +2958,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -3688,107 +2991,107 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3801,158 +3104,86 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="n">
+        <v/>
+      </c>
+      <c r="B16" t="n">
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>0</t>
@@ -3963,125 +3194,53 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="n">
+        <v/>
+      </c>
+      <c r="W16" t="n">
+        <v/>
+      </c>
+      <c r="X16" t="n">
+        <v/>
+      </c>
+      <c r="Y16" t="n">
+        <v/>
+      </c>
+      <c r="Z16" t="n">
+        <v/>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -808,7 +808,7 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
@@ -821,8 +821,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -830,11 +830,11 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
@@ -1008,152 +1008,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>297</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>165</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>271</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>172</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>383</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>205</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>289</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>154</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1170,157 +1170,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>260</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>287</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>271</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>662</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1332,157 +1332,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>929</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1494,142 +1494,142 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1656,157 +1656,157 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1818,1315 +1818,1443 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>185</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>246</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>661</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>635</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>214</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>646</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v/>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v/>
-      </c>
-      <c r="AC15" t="n">
-        <v/>
-      </c>
-      <c r="AD15" t="n">
-        <v/>
-      </c>
-      <c r="AE15" t="n">
-        <v/>
-      </c>
-      <c r="AF15" t="n">
-        <v/>
-      </c>
-      <c r="AG15" t="n">
-        <v/>
-      </c>
-      <c r="AH15" t="n">
-        <v/>
-      </c>
-      <c r="AI15" t="n">
-        <v/>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -3154,69 +3282,69 @@
       <c r="H16" t="n">
         <v/>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v/>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v/>
+      </c>
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="n">
+        <v/>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="n">
-        <v/>
-      </c>
-      <c r="U16" t="n">
-        <v/>
-      </c>
-      <c r="V16" t="n">
-        <v/>
-      </c>
-      <c r="W16" t="n">
-        <v/>
-      </c>
-      <c r="X16" t="n">
-        <v/>
-      </c>
-      <c r="Y16" t="n">
-        <v/>
-      </c>
-      <c r="Z16" t="n">
-        <v/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB16" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/cellbox21.xlsx
+++ b/minio-report-tracker/xlxs/cellbox21.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AR16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,26 +808,26 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
@@ -836,11 +836,20 @@
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1004,6 +1013,46 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1023,17 +1072,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>591</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1043,7 +1092,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1063,17 +1112,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>591</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1083,7 +1132,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1103,17 +1152,17 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>591</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -1123,7 +1172,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -1143,17 +1192,17 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>591</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1163,7 +1212,47 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1185,17 +1274,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>336</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1225,17 +1314,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>336</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1265,17 +1354,17 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>336</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1305,17 +1394,17 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>336</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1324,6 +1413,46 @@
         </is>
       </c>
       <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1490,6 +1619,46 @@
           <t>0</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1652,6 +1821,46 @@
           <t>0</t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1814,6 +2023,46 @@
           <t>0</t>
         </is>
       </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1976,6 +2225,46 @@
           <t>0</t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2138,6 +2427,46 @@
           <t>0</t>
         </is>
       </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2300,6 +2629,46 @@
           <t>0</t>
         </is>
       </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2314,22 +2683,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2339,7 +2708,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2354,22 +2723,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2379,7 +2748,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2394,22 +2763,22 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2419,7 +2788,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -2434,22 +2803,22 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2459,7 +2828,47 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2476,27 +2885,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2516,27 +2925,27 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2556,27 +2965,27 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2596,30 +3005,70 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2633,27 +3082,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>540</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>578</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2663,7 +3112,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2678,22 +3127,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>868</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>248</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>14</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2703,7 +3152,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2718,22 +3167,22 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>823</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>293</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>14</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2743,7 +3192,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2758,22 +3207,22 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>540</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>579</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2783,7 +3232,47 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2795,17 +3284,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2815,7 +3304,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>164</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2825,7 +3314,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2840,12 +3329,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>204</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2855,7 +3344,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>164</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2865,7 +3354,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2880,12 +3369,12 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>204</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2895,7 +3384,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>164</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2905,7 +3394,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2920,12 +3409,12 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>204</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2935,7 +3424,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>164</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -2945,7 +3434,47 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -2957,27 +3486,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pmpui</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3106,35 +3635,91 @@
         </is>
       </c>
       <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v/>
-      </c>
-      <c r="B15" t="n">
-        <v/>
-      </c>
-      <c r="C15" t="n">
-        <v/>
-      </c>
-      <c r="D15" t="n">
-        <v/>
-      </c>
-      <c r="E15" t="n">
-        <v/>
-      </c>
-      <c r="F15" t="n">
-        <v/>
-      </c>
-      <c r="G15" t="n">
-        <v/>
-      </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -3143,27 +3728,27 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>pmpui</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3193,7 +3778,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3203,7 +3788,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3223,17 +3808,17 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>pmpui</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -3243,7 +3828,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3252,59 +3837,131 @@
         </is>
       </c>
       <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v/>
-      </c>
-      <c r="B16" t="n">
-        <v/>
-      </c>
-      <c r="C16" t="n">
-        <v/>
-      </c>
-      <c r="D16" t="n">
-        <v/>
-      </c>
-      <c r="E16" t="n">
-        <v/>
-      </c>
-      <c r="F16" t="n">
-        <v/>
-      </c>
-      <c r="G16" t="n">
-        <v/>
-      </c>
-      <c r="H16" t="n">
-        <v/>
-      </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
-      <c r="K16" t="n">
-        <v/>
-      </c>
-      <c r="L16" t="n">
-        <v/>
-      </c>
-      <c r="M16" t="n">
-        <v/>
-      </c>
-      <c r="N16" t="n">
-        <v/>
-      </c>
-      <c r="O16" t="n">
-        <v/>
-      </c>
-      <c r="P16" t="n">
-        <v/>
-      </c>
-      <c r="Q16" t="n">
-        <v/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -3323,12 +3980,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -3346,29 +4003,85 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB16" t="n">
-        <v/>
-      </c>
-      <c r="AC16" t="n">
-        <v/>
-      </c>
-      <c r="AD16" t="n">
-        <v/>
-      </c>
-      <c r="AE16" t="n">
-        <v/>
-      </c>
-      <c r="AF16" t="n">
-        <v/>
-      </c>
-      <c r="AG16" t="n">
-        <v/>
-      </c>
-      <c r="AH16" t="n">
-        <v/>
-      </c>
-      <c r="AI16" t="n">
-        <v/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>
